--- a/docs/기능정의/기능정의서_희정.xlsx
+++ b/docs/기능정의/기능정의서_희정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Bumpy\docs\기능정의\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC2025E-141C-49EC-8276-2C294DBA58A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D159C2B-4B26-4B74-89DC-79F45FC6A008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="웨이트" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="128">
   <si>
     <t>화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,14 +67,6 @@
   </si>
   <si>
     <t>운동 list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘 날짜를 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘 날짜에 대한 등록 정보를 리스트로 보여준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -88,22 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오늘 날짜에 대한 목록일 때, 만약 등록정보가 없다면, 첫번째 아이템에 `+ 아이템`을 보여준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘 날짜에 대한 목록일 때, 수정버튼과 삭제버튼이 아이템의 우측상단에 보여준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘 날짜에 대한 목록이 아닐 때, 만약 등록정보가 없다면, EmptyMessage를 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘 날짜에 대한 목록이 아닐 떄, 수정버튼과 삭제버튼이 아이템의 우측상단에 보여지지 않음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>삭제 후에 리스트를 재조회 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,12 +298,6 @@
   </si>
   <si>
     <t>식단 list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템에는 요약정보가 보여진다.
-요약 정보는 이름, 날짜, kcal, 음식리스트이다.
-리스트가 긴 경우 3개까지 보여주며, ellipsis처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -360,20 +330,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>차례의 경우, selectbox로 리스트업되고, 리스트 중 하나만 등록하도록 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>저장 시 필수값중 빈 값이 있거나 유효성검사를 통과하지 못하는 경우 error Modal을 출력한다.
 Modal 또는 input을 error상태로 변화시킴.
 동작후 목록페이지로 이동.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>음식리스트의 경우 3개까지 display되며, 추가 정보는 scroll로 내용을 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name 앞에 몇번째 끼니인지 표시해준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,27 +353,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오늘 날짜에 대한 등록 정보를 item형태로 보여준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템에는 요약정보가 보여진다.
-요약 정보는 인바디 점수, 체중, 골격근량, 체지방량 이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>item을 클릭하면 상세페이지로 이동한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>각 일에 대하여 등록된 정보들을 달력에 보여준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차트는 가장최근정보 ~ 10개까지의 정보가 차트로 보여진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인바디 등록 / 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -420,10 +365,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모든 입력값들은 xxx.xxx까지 값만 입력하도록 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>각 값들에는 지정된 단위를 붙여 display한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,10 +373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하단에 인바디 정보를 토대로 최근 10개 data에 대한 차트를 보여준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,10 +414,6 @@
   </si>
   <si>
     <t>의견란</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼 이름이 'Edit' 보단 '추가'가 낫지 않은지?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -493,10 +426,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Time : 50 m 의 'm'을 'min'으로 바꾸는 것을 건의, 바꾼다면 'Time' 을 없애도될거같습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화면에 표시될 수 있는 아이템 개수 이상으로 표시되면 스크롤이 생긴다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -513,10 +442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Time의 경우 'min'이라는 suffix가 있거나 Time(min) 이 어떨까함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이름 목록 클릭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,6 +467,94 @@
   </si>
   <si>
     <t>삭제 버튼 클릭 시 삭제 후 목록페이지로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 데이터가 1개도 없는 경우 캘린더가 아예 뜨지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건의 : Time의 경우 'min'이라는 suffix가 있거나 Time(min) 이 어떨까함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건의 : Time : 50 m 의 'm'을 'min'으로 바꾸는 것을 건의, 바꾼다면 'Time' 을 없애도될거같습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건의 : '버튼 이름이 'Edit' 보단 '추가'가 낫지 않은지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템에는 요약정보가 보여진다.
+요약 정보는 이름, 시간, kcal, water이다.
+리스트가 긴 경우 3개까지 보여주며, ellipsis처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드시 '모든 파일'로 바꾸어 업로드시 업로드 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kcal만 4자리로 확인 유의미하다고 판단함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건의 : 목록페이지로 이동하였을때, 새로고침되지않음. (캘린더, 상단 목록 모두)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건의 : '1번째 식사10:30 m' 이라 표현되는데 띄어쓰기와, m 글자 삭제가 필요해보임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진정보가 없는 경우 'No Image'라는 box를 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 기능 삭제여부 확인 부탁드림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모가 표시되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진을 등록하지 않은경우 에러 (백엔드 문제) - 수정완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건의 : 칼로리값이 없는경우 NaNkcal라고 표시됨. 수정이 필요해보임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의견란</t>
+  </si>
+  <si>
+    <t>마지막 등록한 데이터가 표시, 문제는 클릭했을때 잘못된 날짜로 조회를 시도함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템에는 요약정보가 보여진다.
+요약 정보는 인바디 점수, 키, 체중, 골격근량, 체지방량, BMI수치 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 일에 대하여 등록된 정보를 달력에 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 입력값들은 xx.x 또는 xxxx까지 값만 입력하도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장 시 필수값중 빈 값이 있거나 유효성검사를 통과하지 못하는 경우 error Modal을 출력한다.
+Modal 또는 input을 error상태로 변화시킴.
+동작 후에는 목록 페이지로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무 것도 입력하지 않은 경우 -&gt; 알 수 없는 에러가 발생했습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +562,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,6 +575,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -648,21 +670,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -685,14 +698,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -977,7 +984,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -986,36 +993,36 @@
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="79.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="5"/>
+    <col min="6" max="6" width="9" style="2"/>
     <col min="7" max="7" width="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="G1" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>108</v>
+      <c r="G2" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1032,29 +1039,29 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>102</v>
+        <v>86</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>102</v>
+        <v>84</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>109</v>
+        <v>85</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1062,13 +1069,13 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>107</v>
+        <v>91</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1076,33 +1083,33 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="10"/>
+      <c r="E8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1110,76 +1117,79 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>110</v>
+        <v>82</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>110</v>
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>110</v>
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>110</v>
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>110</v>
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>110</v>
+        <v>16</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>110</v>
+        <v>18</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1187,145 +1197,145 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>110</v>
+        <v>21</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>110</v>
+        <v>26</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>110</v>
+        <v>54</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>110</v>
+        <v>24</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>110</v>
+        <v>25</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>110</v>
+        <v>22</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>110</v>
+        <v>27</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>110</v>
+        <v>28</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>110</v>
+        <v>31</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>110</v>
+        <v>55</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>110</v>
+        <v>32</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>110</v>
+        <v>33</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>110</v>
+        <v>68</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1333,106 +1343,106 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>110</v>
+        <v>39</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>110</v>
+        <v>40</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>110</v>
+        <v>41</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="33" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>110</v>
+        <v>42</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>110</v>
+        <v>43</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>110</v>
+        <v>45</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>110</v>
+        <v>46</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>110</v>
+        <v>48</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>110</v>
+        <v>50</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="3:6" ht="33" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>110</v>
+        <v>67</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1445,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1459,24 +1469,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1484,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1493,26 +1506,26 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>102</v>
+        <v>86</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>102</v>
+        <v>84</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>102</v>
+        <v>85</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1520,10 +1533,10 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>102</v>
+        <v>91</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1531,73 +1544,76 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>102</v>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>102</v>
+        <v>95</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>102</v>
+        <v>96</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>102</v>
+        <v>15</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>102</v>
+        <v>18</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1605,130 +1621,130 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>102</v>
+      <c r="F15" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>102</v>
+        <v>54</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>102</v>
+        <v>59</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>102</v>
+        <v>31</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>102</v>
+        <v>55</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>102</v>
+        <v>32</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>102</v>
+        <v>33</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>102</v>
+        <v>69</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1736,93 +1752,104 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>98</v>
+        <v>39</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="G24" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>102</v>
+        <v>60</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" t="s">
         <v>120</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E29" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>102</v>
+        <v>48</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>102</v>
+        <v>50</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1833,10 +1860,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1845,334 +1872,453 @@
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="79.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
       <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
       <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
       <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
+      <c r="F10" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+      <c r="F14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
       <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E19" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
+      <c r="F19" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="1" t="s">
+      <c r="F23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D30" t="s">
-        <v>36</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E30" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="D31" t="s">
-        <v>62</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="E32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
         <v>44</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="1" t="s">
+      <c r="F35" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="E35" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
       <c r="E38" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
         <v>50</v>
       </c>
+      <c r="F38" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" ht="33" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="D43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2183,10 +2329,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2195,251 +2341,354 @@
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="79.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
+      <c r="F11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="E9" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E10" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
       <c r="E14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
+      <c r="F17" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
       <c r="E22" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
       <c r="E24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
+      <c r="F25" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
       <c r="D27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
-        <v>35</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E28" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D29" t="s">
-        <v>36</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E29" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="D30" t="s">
-        <v>62</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="E30" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="B31" t="s">
         <v>42</v>
       </c>
+      <c r="F30" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>44</v>
       </c>
@@ -2449,65 +2698,49 @@
       <c r="E31" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
       <c r="E33" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" ht="33" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
       <c r="E34" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D39" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="D40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
